--- a/cal.xlsx
+++ b/cal.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxver\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_clone\Adjusted-p-value\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E276CA-B488-4043-9E40-6804FCEF5F87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="10230" xr2:uid="{147F9085-27B8-46A1-8F63-986384693636}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="10230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,8 +28,33 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>CAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,132 +414,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963EB695-4A4E-40B8-8CC6-07761AB08262}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>0.879</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B2" s="1">
         <v>37.799999999999997</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D2" s="1">
         <v>0.17699999999999999</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E2" s="1">
         <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1.58</v>
-      </c>
-      <c r="B2" s="1">
-        <v>319</v>
-      </c>
-      <c r="C2" s="1">
-        <v>21.7</v>
-      </c>
-      <c r="D2">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="E2" s="1">
-        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4.0199999999999996</v>
+        <v>1.58</v>
       </c>
       <c r="B3" s="1">
-        <v>1230</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1">
-        <v>85.6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>66.7</v>
+        <v>21.7</v>
+      </c>
+      <c r="D3">
+        <v>9.9700000000000006</v>
       </c>
       <c r="E3" s="1">
-        <v>1710</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1.77</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="B4" s="1">
-        <v>20.7</v>
+        <v>1230</v>
       </c>
       <c r="C4" s="1">
-        <v>11.8</v>
-      </c>
-      <c r="D4">
-        <v>4.7699999999999996</v>
+        <v>85.6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>66.7</v>
       </c>
       <c r="E4" s="1">
-        <v>16.899999999999999</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="B5" s="1">
-        <v>61.5</v>
+        <v>20.7</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
+        <v>11.8</v>
       </c>
       <c r="D5">
-        <v>6.52</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="E5" s="1">
-        <v>98.1</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>1.89</v>
+      </c>
+      <c r="B6" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>6.52</v>
+      </c>
+      <c r="E6" s="1">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>1.76</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>84.2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>11.8</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>9.82</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="B7" s="1">
-        <v>13.8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7.49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -523,134 +547,151 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B8" s="1">
-        <v>18.350000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="C8" s="1">
-        <v>20.100000000000001</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
-        <v>18.3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>18.399999999999999</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>16.2</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B9" s="1">
-        <v>19.5</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>15.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>16.100000000000001</v>
+        <v>18.3</v>
       </c>
       <c r="E9" s="1">
-        <v>20.2</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>1.1200000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="B10" s="1">
-        <v>27.2</v>
+        <v>19.5</v>
       </c>
       <c r="C10" s="1">
-        <v>1.07</v>
+        <v>15.1</v>
       </c>
       <c r="D10" s="1">
-        <v>1.08</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>12</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>1.06</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="B11" s="1">
-        <v>137</v>
+        <v>27.2</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>1.07</v>
       </c>
       <c r="D11" s="1">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="E11" s="1">
-        <v>264</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>0.995</v>
+        <v>1.06</v>
       </c>
       <c r="B12" s="1">
-        <v>284</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1">
-        <v>3.22</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>2.5099999999999998</v>
+        <v>1.17</v>
       </c>
       <c r="E12" s="1">
-        <v>447</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>88.8</v>
+        <v>0.995</v>
       </c>
       <c r="B13" s="1">
-        <v>71.5</v>
+        <v>284</v>
       </c>
       <c r="C13" s="1">
-        <v>95.8</v>
+        <v>3.22</v>
       </c>
       <c r="D13" s="1">
-        <v>105</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>87.5</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>75.099999999999994</v>
+        <v>88.8</v>
       </c>
       <c r="B14" s="1">
-        <v>169</v>
+        <v>71.5</v>
       </c>
       <c r="C14" s="1">
-        <v>153</v>
+        <v>95.8</v>
       </c>
       <c r="D14" s="1">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="E14" s="1">
-        <v>191</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="B15" s="1">
+        <v>169</v>
+      </c>
+      <c r="C15" s="1">
+        <v>153</v>
+      </c>
+      <c r="D15" s="1">
+        <v>154</v>
+      </c>
+      <c r="E15" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>87.8</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>286</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>254</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>281</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <v>370</v>
       </c>
     </row>
